--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H2">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I2">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J2">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N2">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O2">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P2">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q2">
-        <v>5.457236819142666</v>
+        <v>0.01221564036225</v>
       </c>
       <c r="R2">
-        <v>49.11513137228399</v>
+        <v>0.04886256144900001</v>
       </c>
       <c r="S2">
-        <v>0.1857467195044535</v>
+        <v>6.546774348265476E-06</v>
       </c>
       <c r="T2">
-        <v>0.1998927518542093</v>
+        <v>3.105327625187535E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H3">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I3">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J3">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N3">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O3">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P3">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q3">
-        <v>0.03198591299866668</v>
+        <v>0.515186734877</v>
       </c>
       <c r="R3">
-        <v>0.287873216988</v>
+        <v>3.091120409262</v>
       </c>
       <c r="S3">
-        <v>0.001088697193608426</v>
+        <v>0.0002761059756541614</v>
       </c>
       <c r="T3">
-        <v>0.001171609805798617</v>
+        <v>0.0001964477775010039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H4">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I4">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J4">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N4">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O4">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P4">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q4">
-        <v>1.045056516944</v>
+        <v>0.001194716077</v>
       </c>
       <c r="R4">
-        <v>6.270339101664</v>
+        <v>0.007168296462</v>
       </c>
       <c r="S4">
-        <v>0.03557034927239863</v>
+        <v>6.402887064795111E-07</v>
       </c>
       <c r="T4">
-        <v>0.02551953548877132</v>
+        <v>4.555616482000501E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H5">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I5">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J5">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.057175</v>
+        <v>0.6418275</v>
       </c>
       <c r="N5">
-        <v>0.171525</v>
+        <v>1.283655</v>
       </c>
       <c r="O5">
-        <v>0.01525668997294134</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P5">
-        <v>0.0161020157630309</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q5">
-        <v>0.10123599895</v>
+        <v>0.10728499667625</v>
       </c>
       <c r="R5">
-        <v>0.9111239905499999</v>
+        <v>0.429139986705</v>
       </c>
       <c r="S5">
-        <v>0.003445746505769738</v>
+        <v>5.749765410287918E-05</v>
       </c>
       <c r="T5">
-        <v>0.003708166437974827</v>
+        <v>2.72728284451187E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>4.999072666666667</v>
+        <v>0.1671555</v>
       </c>
       <c r="H6">
-        <v>14.997218</v>
+        <v>0.334311</v>
       </c>
       <c r="I6">
-        <v>0.6376518934716313</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J6">
-        <v>0.6501890059870105</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.082080666666666</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N6">
-        <v>9.246241999999999</v>
+        <v>0.040064</v>
       </c>
       <c r="O6">
-        <v>0.822428495022819</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P6">
-        <v>0.8679967027127143</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q6">
-        <v>15.40754521719511</v>
+        <v>0.002232305984</v>
       </c>
       <c r="R6">
-        <v>138.667906954756</v>
+        <v>0.013393835904</v>
       </c>
       <c r="S6">
-        <v>0.5244230870963247</v>
+        <v>1.196368190299186E-06</v>
       </c>
       <c r="T6">
-        <v>0.5643619133367823</v>
+        <v>8.512089298333554E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H7">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I7">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J7">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01806466666666667</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N7">
-        <v>0.05419400000000001</v>
+        <v>0.146159</v>
       </c>
       <c r="O7">
-        <v>0.004820411347579554</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P7">
-        <v>0.005087495363717806</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q7">
-        <v>0.09030658136577779</v>
+        <v>0.129397047403</v>
       </c>
       <c r="R7">
-        <v>0.8127592322920001</v>
+        <v>0.7763822844180001</v>
       </c>
       <c r="S7">
-        <v>0.003073744423096241</v>
+        <v>6.934824909360859E-05</v>
       </c>
       <c r="T7">
-        <v>0.003307833553499204</v>
+        <v>4.93408712931639E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H8">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I8">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J8">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.590216</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N8">
-        <v>1.180432</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O8">
-        <v>0.1574944036566601</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P8">
-        <v>0.1108137861605369</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q8">
-        <v>2.950532673029333</v>
+        <v>5.457236819142666</v>
       </c>
       <c r="R8">
-        <v>17.703196038176</v>
+        <v>49.11513137228399</v>
       </c>
       <c r="S8">
-        <v>0.1004266047028548</v>
+        <v>0.002924717571940082</v>
       </c>
       <c r="T8">
-        <v>0.0720499054733766</v>
+        <v>0.003121379021938069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,170 +977,170 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H9">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I9">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J9">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.057175</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N9">
-        <v>0.171525</v>
+        <v>0.021442</v>
       </c>
       <c r="O9">
-        <v>0.01525668997294134</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P9">
-        <v>0.0161020157630309</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q9">
-        <v>0.2858219797166667</v>
+        <v>0.01265531140933333</v>
       </c>
       <c r="R9">
-        <v>2.57239781745</v>
+        <v>0.113897802684</v>
       </c>
       <c r="S9">
-        <v>0.009728457249355693</v>
+        <v>6.782408915702101E-06</v>
       </c>
       <c r="T9">
-        <v>0.01046935362335223</v>
+        <v>7.238466069609263E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.770634</v>
+      </c>
+      <c r="H10">
+        <v>5.311902</v>
+      </c>
+      <c r="I10">
+        <v>0.003622578483928828</v>
+      </c>
+      <c r="J10">
+        <v>0.003624824093243436</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.453508</v>
-      </c>
-      <c r="H10">
-        <v>0.9070159999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.05784677562955994</v>
-      </c>
-      <c r="J10">
-        <v>0.03932274848937411</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.082080666666666</v>
+        <v>0.6418275</v>
       </c>
       <c r="N10">
-        <v>9.246241999999999</v>
+        <v>1.283655</v>
       </c>
       <c r="O10">
-        <v>0.822428495022819</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P10">
-        <v>0.8679967027127143</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q10">
-        <v>1.397748238978666</v>
+        <v>1.136441593635</v>
       </c>
       <c r="R10">
-        <v>8.386489433871999</v>
+        <v>6.81864956181</v>
       </c>
       <c r="S10">
-        <v>0.04757483662294167</v>
+        <v>0.0006090574421708969</v>
       </c>
       <c r="T10">
-        <v>0.0341320160303781</v>
+        <v>0.0004333407873605204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.770634</v>
+      </c>
+      <c r="H11">
+        <v>5.311902</v>
+      </c>
+      <c r="I11">
+        <v>0.003622578483928828</v>
+      </c>
+      <c r="J11">
+        <v>0.003624824093243436</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.453508</v>
-      </c>
-      <c r="H11">
-        <v>0.9070159999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.05784677562955994</v>
-      </c>
-      <c r="J11">
-        <v>0.03932274848937411</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.01806466666666667</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N11">
-        <v>0.05419400000000001</v>
+        <v>0.040064</v>
       </c>
       <c r="O11">
-        <v>0.004820411347579554</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P11">
-        <v>0.005087495363717806</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q11">
-        <v>0.008192470850666668</v>
+        <v>0.02364622685866667</v>
       </c>
       <c r="R11">
-        <v>0.049154825104</v>
+        <v>0.212816041728</v>
       </c>
       <c r="S11">
-        <v>0.0002788452536656191</v>
+        <v>1.26728118085388E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002000543006283321</v>
+        <v>1.352494658207376E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H12">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I12">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J12">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.590216</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N12">
-        <v>1.180432</v>
+        <v>0.146159</v>
       </c>
       <c r="O12">
-        <v>0.1574944036566601</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P12">
-        <v>0.1108137861605369</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q12">
-        <v>0.267667677728</v>
+        <v>0.8824440243579998</v>
       </c>
       <c r="R12">
-        <v>1.070670710912</v>
+        <v>5.294664146148</v>
       </c>
       <c r="S12">
-        <v>0.009110543431238164</v>
+        <v>0.0004729315640545766</v>
       </c>
       <c r="T12">
-        <v>0.004357502642346077</v>
+        <v>0.0003364880258331165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H13">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I13">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J13">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.057175</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N13">
-        <v>0.171525</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O13">
-        <v>0.01525668997294134</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P13">
-        <v>0.0161020157630309</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q13">
-        <v>0.0259293199</v>
+        <v>37.21650622800265</v>
       </c>
       <c r="R13">
-        <v>0.1555759194</v>
+        <v>334.9485560520239</v>
       </c>
       <c r="S13">
-        <v>0.0008825503217144944</v>
+        <v>0.019945582964156</v>
       </c>
       <c r="T13">
-        <v>0.0006331755160216012</v>
+        <v>0.02128674742544247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1271686666666667</v>
+        <v>12.075124</v>
       </c>
       <c r="H14">
-        <v>0.381506</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I14">
-        <v>0.01622087664997523</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J14">
-        <v>0.0165398013763673</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.082080666666666</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N14">
-        <v>9.246241999999999</v>
+        <v>0.021442</v>
       </c>
       <c r="O14">
-        <v>0.822428495022819</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P14">
-        <v>0.8679967027127143</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q14">
-        <v>0.3919440889391111</v>
+        <v>0.0863049362693333</v>
       </c>
       <c r="R14">
-        <v>3.527496800452</v>
+        <v>0.7767444264239999</v>
       </c>
       <c r="S14">
-        <v>0.01334051117118991</v>
+        <v>4.625373096631399E-05</v>
       </c>
       <c r="T14">
-        <v>0.01435649305821003</v>
+        <v>4.936388624657861E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.075124</v>
+      </c>
+      <c r="H15">
+        <v>36.22537199999999</v>
+      </c>
+      <c r="I15">
+        <v>0.02470475795289856</v>
+      </c>
+      <c r="J15">
+        <v>0.02472007224762545</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.1271686666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.381506</v>
-      </c>
-      <c r="I15">
-        <v>0.01622087664997523</v>
-      </c>
-      <c r="J15">
-        <v>0.0165398013763673</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01806466666666667</v>
+        <v>0.6418275</v>
       </c>
       <c r="N15">
-        <v>0.05419400000000001</v>
+        <v>1.283655</v>
       </c>
       <c r="O15">
-        <v>0.004820411347579554</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P15">
-        <v>0.005087495363717806</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q15">
-        <v>0.002297259573777779</v>
+        <v>7.750146649109998</v>
       </c>
       <c r="R15">
-        <v>0.020675336164</v>
+        <v>46.50087989465999</v>
       </c>
       <c r="S15">
-        <v>7.819129787122881E-05</v>
+        <v>0.004153565410658785</v>
       </c>
       <c r="T15">
-        <v>8.414616281908202E-05</v>
+        <v>0.002955237356582961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1271686666666667</v>
+        <v>12.075124</v>
       </c>
       <c r="H16">
-        <v>0.381506</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I16">
-        <v>0.01622087664997523</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J16">
-        <v>0.0165398013763673</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.590216</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N16">
-        <v>1.180432</v>
+        <v>0.040064</v>
       </c>
       <c r="O16">
-        <v>0.1574944036566601</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P16">
-        <v>0.1108137861605369</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q16">
-        <v>0.07505698176533333</v>
+        <v>0.1612592559786666</v>
       </c>
       <c r="R16">
-        <v>0.450341890592</v>
+        <v>1.451333303808</v>
       </c>
       <c r="S16">
-        <v>0.002554697294776092</v>
+        <v>8.64242830628861E-05</v>
       </c>
       <c r="T16">
-        <v>0.001832838012858519</v>
+        <v>9.223555352033044E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,93 +1458,93 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H17">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I17">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J17">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.057175</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N17">
-        <v>0.171525</v>
+        <v>0.146159</v>
       </c>
       <c r="O17">
-        <v>0.01525668997294134</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P17">
-        <v>0.0161020157630309</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q17">
-        <v>0.007270868516666667</v>
+        <v>0.05417014283525001</v>
       </c>
       <c r="R17">
-        <v>0.06543781664999999</v>
+        <v>0.216680571341</v>
       </c>
       <c r="S17">
-        <v>0.0002474768861379953</v>
+        <v>2.903160956274013E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002663241424796663</v>
+        <v>1.377054628478541E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4894313333333334</v>
+        <v>0.7412495</v>
       </c>
       <c r="H18">
-        <v>1.468294</v>
+        <v>1.482499</v>
       </c>
       <c r="I18">
-        <v>0.06242894177260313</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J18">
-        <v>0.06365638056049407</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,116 +1559,116 @@
         <v>9.246241999999999</v>
       </c>
       <c r="O18">
-        <v>0.822428495022819</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P18">
-        <v>0.8679967027127143</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q18">
-        <v>1.508466850127556</v>
+        <v>2.284590753126333</v>
       </c>
       <c r="R18">
-        <v>13.576201651148</v>
+        <v>13.707544518758</v>
       </c>
       <c r="S18">
-        <v>0.05134334062790919</v>
+        <v>0.001224389364398176</v>
       </c>
       <c r="T18">
-        <v>0.05525352843313457</v>
+        <v>0.0008711458303719017</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4894313333333334</v>
+        <v>0.7412495</v>
       </c>
       <c r="H19">
-        <v>1.468294</v>
+        <v>1.482499</v>
       </c>
       <c r="I19">
-        <v>0.06242894177260313</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J19">
-        <v>0.06365638056049407</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.01806466666666667</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N19">
-        <v>0.05419400000000001</v>
+        <v>0.021442</v>
       </c>
       <c r="O19">
-        <v>0.004820411347579554</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P19">
-        <v>0.005087495363717806</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q19">
-        <v>0.008841413892888891</v>
+        <v>0.005297957259666666</v>
       </c>
       <c r="R19">
-        <v>0.07957272503600002</v>
+        <v>0.031787743558</v>
       </c>
       <c r="S19">
-        <v>0.0003009331793380393</v>
+        <v>2.839354275112601E-06</v>
       </c>
       <c r="T19">
-        <v>0.0003238515409725699</v>
+        <v>2.020183864410462E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4894313333333334</v>
+        <v>0.7412495</v>
       </c>
       <c r="H20">
-        <v>1.468294</v>
+        <v>1.482499</v>
       </c>
       <c r="I20">
-        <v>0.06242894177260313</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J20">
-        <v>0.06365638056049407</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,60 +1677,60 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.590216</v>
+        <v>0.6418275</v>
       </c>
       <c r="N20">
-        <v>1.180432</v>
+        <v>1.283655</v>
       </c>
       <c r="O20">
-        <v>0.1574944036566601</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P20">
-        <v>0.1108137861605369</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q20">
-        <v>0.2888702038346667</v>
+        <v>0.47575431346125</v>
       </c>
       <c r="R20">
-        <v>1.733221223008</v>
+        <v>1.903017253845</v>
       </c>
       <c r="S20">
-        <v>0.009832208955392489</v>
+        <v>0.0002549728088811444</v>
       </c>
       <c r="T20">
-        <v>0.007054004543184346</v>
+        <v>0.0001209411024377302</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4894313333333334</v>
+        <v>0.7412495</v>
       </c>
       <c r="H21">
-        <v>1.468294</v>
+        <v>1.482499</v>
       </c>
       <c r="I21">
-        <v>0.06242894177260313</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J21">
-        <v>0.06365638056049407</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1739,648 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.057175</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N21">
-        <v>0.171525</v>
+        <v>0.040064</v>
       </c>
       <c r="O21">
-        <v>0.01525668997294134</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P21">
-        <v>0.0161020157630309</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q21">
-        <v>0.02798323648333333</v>
+        <v>0.009899139989333334</v>
       </c>
       <c r="R21">
-        <v>0.25184912835</v>
+        <v>0.059394839936</v>
       </c>
       <c r="S21">
-        <v>0.0009524590099634126</v>
+        <v>5.305283540626399E-06</v>
       </c>
       <c r="T21">
-        <v>0.001024996043202569</v>
+        <v>3.77467803114172E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>466.7532549999999</v>
+      </c>
+      <c r="H22">
+        <v>1400.259765</v>
+      </c>
+      <c r="I22">
+        <v>0.9549406025563415</v>
+      </c>
+      <c r="J22">
+        <v>0.9555325630953643</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.07307950000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.146159</v>
+      </c>
+      <c r="O22">
+        <v>0.01914333930962835</v>
+      </c>
+      <c r="P22">
+        <v>0.01361193537229401</v>
+      </c>
+      <c r="Q22">
+        <v>34.1100944987725</v>
+      </c>
+      <c r="R22">
+        <v>204.660566992635</v>
+      </c>
+      <c r="S22">
+        <v>0.01828075197527699</v>
+      </c>
+      <c r="T22">
+        <v>0.01300664749497655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>466.7532549999999</v>
+      </c>
+      <c r="H23">
+        <v>1400.259765</v>
+      </c>
+      <c r="I23">
+        <v>0.9549406025563415</v>
+      </c>
+      <c r="J23">
+        <v>0.9555325630953643</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N23">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.8073579592313238</v>
+      </c>
+      <c r="P23">
+        <v>0.8611118613331405</v>
+      </c>
+      <c r="Q23">
+        <v>1438.571183339236</v>
+      </c>
+      <c r="R23">
+        <v>12947.14065005313</v>
+      </c>
+      <c r="S23">
+        <v>0.7709788960670185</v>
+      </c>
+      <c r="T23">
+        <v>0.8228204239714757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>466.7532549999999</v>
+      </c>
+      <c r="H24">
+        <v>1400.259765</v>
+      </c>
+      <c r="I24">
+        <v>0.9549406025563415</v>
+      </c>
+      <c r="J24">
+        <v>0.9555325630953643</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.021442</v>
+      </c>
+      <c r="O24">
+        <v>0.001872260034059031</v>
+      </c>
+      <c r="P24">
+        <v>0.001996915128406244</v>
+      </c>
+      <c r="Q24">
+        <v>3.336041097903332</v>
+      </c>
+      <c r="R24">
+        <v>30.02436988113</v>
+      </c>
+      <c r="S24">
+        <v>0.001787897125066488</v>
+      </c>
+      <c r="T24">
+        <v>0.001908117430929926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>466.7532549999999</v>
+      </c>
+      <c r="H25">
+        <v>1400.259765</v>
+      </c>
+      <c r="I25">
+        <v>0.9549406025563415</v>
+      </c>
+      <c r="J25">
+        <v>0.9555325630953643</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6418275</v>
+      </c>
+      <c r="N25">
+        <v>1.283655</v>
+      </c>
+      <c r="O25">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P25">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q25">
+        <v>299.5750747735124</v>
+      </c>
+      <c r="R25">
+        <v>1797.450448641075</v>
+      </c>
+      <c r="S25">
+        <v>0.1605524030461633</v>
+      </c>
+      <c r="T25">
+        <v>0.1142320903274114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>466.7532549999999</v>
+      </c>
+      <c r="H26">
+        <v>1400.259765</v>
+      </c>
+      <c r="I26">
+        <v>0.9549406025563415</v>
+      </c>
+      <c r="J26">
+        <v>0.9555325630953643</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.040064</v>
+      </c>
+      <c r="O26">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P26">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q26">
+        <v>6.233334136106666</v>
+      </c>
+      <c r="R26">
+        <v>56.10000722496</v>
+      </c>
+      <c r="S26">
+        <v>0.003340654342816145</v>
+      </c>
+      <c r="T26">
+        <v>0.003565283870570683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.269846</v>
+      </c>
+      <c r="H27">
+        <v>21.809538</v>
+      </c>
+      <c r="I27">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J27">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.07307950000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.146159</v>
+      </c>
+      <c r="O27">
+        <v>0.01914333930962835</v>
+      </c>
+      <c r="P27">
+        <v>0.01361193537229401</v>
+      </c>
+      <c r="Q27">
+        <v>0.531276710757</v>
+      </c>
+      <c r="R27">
+        <v>3.187660264542</v>
+      </c>
+      <c r="S27">
+        <v>0.0002847291372921643</v>
+      </c>
+      <c r="T27">
+        <v>0.0002025831062812091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.269846</v>
+      </c>
+      <c r="H28">
+        <v>21.809538</v>
+      </c>
+      <c r="I28">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J28">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N28">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.8073579592313238</v>
+      </c>
+      <c r="P28">
+        <v>0.8611118613331405</v>
+      </c>
+      <c r="Q28">
+        <v>22.406251806244</v>
+      </c>
+      <c r="R28">
+        <v>201.656266256196</v>
+      </c>
+      <c r="S28">
+        <v>0.01200826728815685</v>
+      </c>
+      <c r="T28">
+        <v>0.01281571730641137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.269846</v>
+      </c>
+      <c r="H29">
+        <v>21.809538</v>
+      </c>
+      <c r="I29">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J29">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.021442</v>
+      </c>
+      <c r="O29">
+        <v>0.001872260034059031</v>
+      </c>
+      <c r="P29">
+        <v>0.001996915128406244</v>
+      </c>
+      <c r="Q29">
+        <v>0.051960012644</v>
+      </c>
+      <c r="R29">
+        <v>0.467640113796</v>
+      </c>
+      <c r="S29">
+        <v>2.784712612893532E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.97195996475187E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.269846</v>
+      </c>
+      <c r="H30">
+        <v>21.809538</v>
+      </c>
+      <c r="I30">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J30">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6418275</v>
+      </c>
+      <c r="N30">
+        <v>1.283655</v>
+      </c>
+      <c r="O30">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P30">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q30">
+        <v>4.665987083565</v>
+      </c>
+      <c r="R30">
+        <v>27.99592250139</v>
+      </c>
+      <c r="S30">
+        <v>0.002500660108038322</v>
+      </c>
+      <c r="T30">
+        <v>0.001779204956885347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.269846</v>
+      </c>
+      <c r="H31">
+        <v>21.809538</v>
+      </c>
+      <c r="I31">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J31">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.040064</v>
+      </c>
+      <c r="O31">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P31">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q31">
+        <v>0.09708637004800001</v>
+      </c>
+      <c r="R31">
+        <v>0.873777330432</v>
+      </c>
+      <c r="S31">
+        <v>5.203186555496991E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.553054940202356E-05</v>
       </c>
     </row>
   </sheetData>
